--- a/src/main/webapp/resources/front/upload/excel/주요농산물일일거래동향.xlsx
+++ b/src/main/webapp/resources/front/upload/excel/주요농산물일일거래동향.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>기준일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기준일 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A03</t>
@@ -40,88 +40,117 @@
   </si>
   <si>
     <t>A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주요 농산물 일일 거래동향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>위험도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1년전 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배추:A01, 무:A02, 건고추(600g):A03, 마늘: A04, 양파 : A05
 안정 0 
 하락주의 : 1, 하락경계 : 2, 하락심각 : 3  
-상승주의 : 4, 상승경계 :5, 상승심각 : 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6900</t>
-  </si>
-  <si>
-    <t>3420</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>3723</t>
-  </si>
-  <si>
-    <t>3381</t>
-  </si>
-  <si>
-    <t>9238</t>
-  </si>
-  <si>
-    <t>10027</t>
-  </si>
-  <si>
-    <t>8640</t>
-  </si>
-  <si>
-    <t>2740</t>
-  </si>
-  <si>
-    <t>946</t>
+상승주의 : 4, 상승경계 :5, 상승심각 : 6, 위험도 없음 : 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20141021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2780</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3406</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7908</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>504</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4771</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>912</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -160,8 +189,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +213,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,63 +314,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="백분율 2" xfId="5"/>
+    <cellStyle name="쉼표 [0] 2" xfId="4"/>
+    <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,7 +471,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,7 +505,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,48 +680,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="16.5">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -676,104 +730,102 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
+      <c r="D8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -783,7 +835,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -791,28 +843,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
